--- a/docs/003_基本設計/画面設計.xlsx
+++ b/docs/003_基本設計/画面設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kmusubi\docs\003_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F9640-C7B4-45F7-AF30-AD718A5FD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B8553C-E135-4194-A70C-CE734DBA77EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,10 @@
     <sheet name="サイトマップ" sheetId="1" r:id="rId1"/>
     <sheet name="画面構成" sheetId="9" r:id="rId2"/>
     <sheet name="ホーム画面" sheetId="8" r:id="rId3"/>
-    <sheet name="飲食店一覧画面" sheetId="5" r:id="rId4"/>
-    <sheet name="検索画面" sheetId="4" r:id="rId5"/>
+    <sheet name="子供食堂一覧画面" sheetId="5" r:id="rId4"/>
+    <sheet name="飲食店を探す画面" sheetId="4" r:id="rId5"/>
     <sheet name="検索結果画面" sheetId="6" r:id="rId6"/>
     <sheet name="お問い合わせ画面" sheetId="7" r:id="rId7"/>
-    <sheet name="テーマの選定" sheetId="2" r:id="rId8"/>
-    <sheet name="プラグインの利用" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,62 +32,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
-  <si>
-    <t>ホーム画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店一覧画面</t>
-    <rPh sb="0" eb="3">
-      <t>インショクテン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索画面</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索結果画面</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お問い合わせ画面</t>
-    <rPh sb="1" eb="2">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
   <si>
     <t>sidebar</t>
     <phoneticPr fontId="1"/>
@@ -108,6 +50,65 @@
   </si>
   <si>
     <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店を探す/画面</t>
+    <rPh sb="4" eb="5">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供食堂一覧/画面</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム/画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ/画面</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果/画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -648,7 +649,7 @@
   <dimension ref="H5:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
@@ -662,28 +663,28 @@
   <sheetData>
     <row r="5" spans="8:10" ht="40.799999999999997" customHeight="1">
       <c r="H5" s="13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="8:10" ht="40.799999999999997" customHeight="1">
       <c r="H6" s="13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="8:10" ht="40.799999999999997" customHeight="1">
       <c r="H7" s="13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="8:10" ht="40.799999999999997" customHeight="1">
       <c r="H8" s="13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +765,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -927,7 +928,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -963,7 +964,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
       <c r="T12" s="12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1322,7 +1323,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="11"/>
@@ -1439,7 +1440,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1602,7 +1603,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1638,7 +1639,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
       <c r="T12" s="12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1997,7 +1998,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="11"/>
@@ -2114,7 +2115,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2277,7 +2278,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2313,7 +2314,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
       <c r="T12" s="12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -2672,7 +2673,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="11"/>
@@ -2724,7 +2725,7 @@
   <dimension ref="C1:W29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
@@ -2789,7 +2790,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2952,7 +2953,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2988,7 +2989,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
       <c r="T12" s="12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -3347,7 +3348,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="11"/>
@@ -3464,7 +3465,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -3627,7 +3628,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -3663,7 +3664,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
       <c r="T12" s="12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -4022,7 +4023,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="11"/>
@@ -4139,7 +4140,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -4302,7 +4303,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -4338,7 +4339,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="6"/>
       <c r="T12" s="12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -4697,7 +4698,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="11"/>
@@ -4742,42 +4743,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EF4B96-6412-4093-8B9F-CE5A21B3C597}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="16384" width="4.296875" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C56F85-55AE-4FE4-8F4B-AB71F4FC50B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="16384" width="4.296875" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>